--- a/biology/Botanique/José_Jerónimo_Triana/José_Jerónimo_Triana.xlsx
+++ b/biology/Botanique/José_Jerónimo_Triana/José_Jerónimo_Triana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jos%C3%A9_Jer%C3%B3nimo_Triana</t>
+          <t>José_Jerónimo_Triana</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">José Jerónimo Triana, né le 22 mai 1828 à Bogota et mort le 31 octobre 1890 à Paris, est un botaniste colombien.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jos%C3%A9_Jer%C3%B3nimo_Triana</t>
+          <t>José_Jerónimo_Triana</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son herbier compte 60 000 spécimens représentant 8 000 espèces qu'il  présenta à la foire universel de 1867 à Paris et reçu le 1er Prix .
 Il fut nommé au poste de  Consul général de Colombie à Paris de 1874 à 1890.
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jos%C3%A9_Jer%C3%B3nimo_Triana</t>
+          <t>José_Jerónimo_Triana</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ce texte utilise des extraits de l'article de langue anglaise de Wikipédia (version du 17 février 2006).
 John Hendley Barnhart (1965). Biographical Notes upon Botanists. G.K. Hall &amp; Co. (Boston).</t>
